--- a/biology/Médecine/Colite_collagène/Colite_collagène.xlsx
+++ b/biology/Médecine/Colite_collagène/Colite_collagène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colite_collag%C3%A8ne</t>
+          <t>Colite_collagène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La colite collagène est caractérisée par une diarrhée hydrique chronique. 600 cas sont recensés en Europe chaque année, essentiellement chez des femmes de plus de 60 ans avec un pic entre 70 et 79 ans.
 Une molécule est prescrite en première intention, la budésonide. On observe 20 % de rémissions spontanées à la suite du traitement.
